--- a/files/28_11_2022/route_number_5.xlsx
+++ b/files/28_11_2022/route_number_5.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,988 +435,1017 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>676359</v>
+        <v>627732</v>
       </c>
       <c r="B2">
-        <v>607521</v>
+        <v>609851</v>
       </c>
       <c r="C2">
-        <v>37.64409798</v>
+        <v>38.9220652</v>
       </c>
       <c r="D2">
-        <v>55.95018314</v>
+        <v>55.57895649</v>
       </c>
       <c r="E2">
-        <v>37.74373932</v>
+        <v>38.90077626</v>
       </c>
       <c r="F2">
-        <v>55.97877347</v>
+        <v>55.57783434</v>
       </c>
       <c r="G2">
-        <v>16.87</v>
+        <v>11.05</v>
       </c>
       <c r="H2">
         <v>10</v>
       </c>
       <c r="I2">
-        <v>6.870000000000001</v>
+        <v>1.050000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>607521</v>
+        <v>609851</v>
       </c>
       <c r="B3">
-        <v>616793</v>
+        <v>645352</v>
       </c>
       <c r="C3">
-        <v>37.74373932</v>
+        <v>38.90077626</v>
       </c>
       <c r="D3">
-        <v>55.97877347</v>
+        <v>55.57783434</v>
       </c>
       <c r="E3">
-        <v>37.7364691</v>
+        <v>38.91853573</v>
       </c>
       <c r="F3">
-        <v>55.96527102</v>
+        <v>55.62701339</v>
       </c>
       <c r="G3">
-        <v>14.06</v>
+        <v>19.77</v>
       </c>
       <c r="H3">
         <v>10</v>
       </c>
       <c r="I3">
-        <v>4.059999999999999</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>616793</v>
+        <v>645352</v>
       </c>
       <c r="B4">
-        <v>619616</v>
+        <v>619222</v>
       </c>
       <c r="C4">
-        <v>37.7364691</v>
+        <v>38.91853573</v>
       </c>
       <c r="D4">
-        <v>55.96527102</v>
+        <v>55.62701339</v>
       </c>
       <c r="E4">
-        <v>37.65950959</v>
+        <v>38.95723867</v>
       </c>
       <c r="F4">
-        <v>55.92292027</v>
+        <v>55.70677114</v>
       </c>
       <c r="G4">
-        <v>24.95</v>
+        <v>21.06</v>
       </c>
       <c r="H4">
         <v>10</v>
       </c>
       <c r="I4">
-        <v>14.95</v>
+        <v>11.06</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>619616</v>
+        <v>619222</v>
       </c>
       <c r="B5">
-        <v>692216</v>
+        <v>645468</v>
       </c>
       <c r="C5">
-        <v>37.65950959</v>
+        <v>38.95723867</v>
       </c>
       <c r="D5">
-        <v>55.92292027</v>
+        <v>55.70677114</v>
       </c>
       <c r="E5">
-        <v>37.74574958</v>
+        <v>38.95347655</v>
       </c>
       <c r="F5">
-        <v>55.89113236</v>
+        <v>55.71800055</v>
       </c>
       <c r="G5">
-        <v>19.9</v>
+        <v>12.99</v>
       </c>
       <c r="H5">
         <v>10</v>
       </c>
       <c r="I5">
-        <v>9.899999999999999</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>692216</v>
+        <v>645468</v>
       </c>
       <c r="B6">
-        <v>637196</v>
+        <v>609129</v>
       </c>
       <c r="C6">
-        <v>37.74574958</v>
+        <v>38.95347655</v>
       </c>
       <c r="D6">
-        <v>55.89113236</v>
+        <v>55.71800055</v>
       </c>
       <c r="E6">
-        <v>37.57113744</v>
+        <v>38.95772919</v>
       </c>
       <c r="F6">
-        <v>55.84322341</v>
+        <v>55.73709143</v>
       </c>
       <c r="G6">
-        <v>34.43</v>
+        <v>14.65</v>
       </c>
       <c r="H6">
         <v>10</v>
       </c>
       <c r="I6">
-        <v>24.43</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>637196</v>
+        <v>609129</v>
       </c>
       <c r="B7">
-        <v>699449</v>
+        <v>646119</v>
       </c>
       <c r="C7">
-        <v>37.57113744</v>
+        <v>38.95772919</v>
       </c>
       <c r="D7">
-        <v>55.84322341</v>
+        <v>55.73709143</v>
       </c>
       <c r="E7">
-        <v>37.33897676</v>
+        <v>38.96869582</v>
       </c>
       <c r="F7">
-        <v>55.95956434</v>
+        <v>55.80853223</v>
       </c>
       <c r="G7">
-        <v>34.88</v>
+        <v>26.46</v>
       </c>
       <c r="H7">
         <v>10</v>
       </c>
       <c r="I7">
-        <v>24.88</v>
+        <v>16.46</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>699449</v>
+        <v>646119</v>
       </c>
       <c r="B8">
-        <v>607764</v>
+        <v>634901</v>
       </c>
       <c r="C8">
-        <v>37.33897676</v>
+        <v>38.96869582</v>
       </c>
       <c r="D8">
-        <v>55.95956434</v>
+        <v>55.80853223</v>
       </c>
       <c r="E8">
-        <v>37.47659839</v>
+        <v>38.97008855</v>
       </c>
       <c r="F8">
-        <v>55.95511024</v>
+        <v>55.80857164</v>
       </c>
       <c r="G8">
-        <v>26.97</v>
+        <v>11.14</v>
       </c>
       <c r="H8">
         <v>10</v>
       </c>
       <c r="I8">
-        <v>16.97</v>
+        <v>1.140000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>607764</v>
+        <v>634901</v>
       </c>
       <c r="B9">
-        <v>682799</v>
+        <v>634917</v>
       </c>
       <c r="C9">
-        <v>37.47659839</v>
+        <v>38.97008855</v>
       </c>
       <c r="D9">
-        <v>55.95511024</v>
+        <v>55.80857164</v>
       </c>
       <c r="E9">
-        <v>37.44550917</v>
+        <v>38.9563496</v>
       </c>
       <c r="F9">
-        <v>56.00574625</v>
+        <v>55.80822127</v>
       </c>
       <c r="G9">
-        <v>26.94</v>
+        <v>12.71</v>
       </c>
       <c r="H9">
         <v>10</v>
       </c>
       <c r="I9">
-        <v>16.94</v>
+        <v>2.710000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>682799</v>
+        <v>634917</v>
       </c>
       <c r="B10">
-        <v>622379</v>
+        <v>622423</v>
       </c>
       <c r="C10">
-        <v>37.44550917</v>
+        <v>38.9563496</v>
       </c>
       <c r="D10">
-        <v>56.00574625</v>
+        <v>55.80822127</v>
       </c>
       <c r="E10">
-        <v>37.46579818</v>
+        <v>38.92861768</v>
       </c>
       <c r="F10">
-        <v>56.01207192</v>
+        <v>55.79056254</v>
       </c>
       <c r="G10">
-        <v>13.63</v>
+        <v>15.29</v>
       </c>
       <c r="H10">
         <v>10</v>
       </c>
       <c r="I10">
-        <v>3.629999999999999</v>
+        <v>5.289999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>622379</v>
+        <v>622423</v>
       </c>
       <c r="B11">
-        <v>608033</v>
+        <v>693096</v>
       </c>
       <c r="C11">
-        <v>37.46579818</v>
+        <v>38.92861768</v>
       </c>
       <c r="D11">
-        <v>56.01207192</v>
+        <v>55.79056254</v>
       </c>
       <c r="E11">
-        <v>37.46876758</v>
+        <v>39.02245598</v>
       </c>
       <c r="F11">
-        <v>56.01002225</v>
+        <v>55.82229308</v>
       </c>
       <c r="G11">
-        <v>10.84</v>
+        <v>23.64</v>
       </c>
       <c r="H11">
         <v>10</v>
       </c>
       <c r="I11">
-        <v>0.8399999999999999</v>
+        <v>13.64</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>608033</v>
+        <v>693096</v>
       </c>
       <c r="B12">
-        <v>607599</v>
+        <v>606574</v>
       </c>
       <c r="C12">
-        <v>37.46876758</v>
+        <v>39.02245598</v>
       </c>
       <c r="D12">
-        <v>56.01002225</v>
+        <v>55.82229308</v>
       </c>
       <c r="E12">
-        <v>37.46518941</v>
+        <v>38.86553763</v>
       </c>
       <c r="F12">
-        <v>56.00751271</v>
+        <v>55.60340272</v>
       </c>
       <c r="G12">
-        <v>11.89</v>
+        <v>55.35</v>
       </c>
       <c r="H12">
         <v>10</v>
       </c>
       <c r="I12">
-        <v>1.890000000000001</v>
+        <v>45.35</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>607599</v>
+        <v>606574</v>
       </c>
       <c r="B13">
-        <v>618797</v>
+        <v>668120</v>
       </c>
       <c r="C13">
-        <v>37.46518941</v>
+        <v>38.86553763</v>
       </c>
       <c r="D13">
-        <v>56.00751271</v>
+        <v>55.60340272</v>
       </c>
       <c r="E13">
-        <v>37.48359707</v>
+        <v>39.11627677</v>
       </c>
       <c r="F13">
-        <v>56.01191426</v>
+        <v>55.56526038</v>
       </c>
       <c r="G13">
-        <v>12.33</v>
+        <v>34.93</v>
       </c>
       <c r="H13">
         <v>10</v>
       </c>
       <c r="I13">
-        <v>2.33</v>
+        <v>24.93</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>618797</v>
+        <v>668120</v>
       </c>
       <c r="B14">
-        <v>607558</v>
+        <v>619195</v>
       </c>
       <c r="C14">
-        <v>37.48359707</v>
+        <v>39.11627677</v>
       </c>
       <c r="D14">
-        <v>56.01191426</v>
+        <v>55.56526038</v>
       </c>
       <c r="E14">
-        <v>37.4869694</v>
+        <v>39.12461259</v>
       </c>
       <c r="F14">
-        <v>56.00577399</v>
+        <v>55.56594594</v>
       </c>
       <c r="G14">
-        <v>12.69</v>
+        <v>11.27</v>
       </c>
       <c r="H14">
         <v>10</v>
       </c>
       <c r="I14">
-        <v>2.69</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>607558</v>
+        <v>619195</v>
       </c>
       <c r="B15">
-        <v>608073</v>
+        <v>698622</v>
       </c>
       <c r="C15">
-        <v>37.4869694</v>
+        <v>39.12461259</v>
       </c>
       <c r="D15">
-        <v>56.00577399</v>
+        <v>55.56594594</v>
       </c>
       <c r="E15">
-        <v>37.48071895</v>
+        <v>39.52589636</v>
       </c>
       <c r="F15">
-        <v>56.00135006</v>
+        <v>55.57604306</v>
       </c>
       <c r="G15">
-        <v>11.29</v>
+        <v>41.92</v>
       </c>
       <c r="H15">
         <v>10</v>
       </c>
       <c r="I15">
-        <v>1.289999999999999</v>
+        <v>31.92</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>608073</v>
+        <v>698622</v>
       </c>
       <c r="B16">
-        <v>686192</v>
+        <v>609033</v>
       </c>
       <c r="C16">
-        <v>37.48071895</v>
+        <v>39.52589636</v>
       </c>
       <c r="D16">
-        <v>56.00135006</v>
+        <v>55.57604306</v>
       </c>
       <c r="E16">
-        <v>37.47592831</v>
+        <v>39.54879754</v>
       </c>
       <c r="F16">
-        <v>56.02469407</v>
+        <v>55.57473355</v>
       </c>
       <c r="G16">
-        <v>15.31</v>
+        <v>11.22</v>
       </c>
       <c r="H16">
         <v>10</v>
       </c>
       <c r="I16">
-        <v>5.309999999999999</v>
+        <v>1.220000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>686192</v>
+        <v>609033</v>
       </c>
       <c r="B17">
-        <v>635599</v>
+        <v>639715</v>
       </c>
       <c r="C17">
-        <v>37.47592831</v>
+        <v>39.54879754</v>
       </c>
       <c r="D17">
-        <v>56.02469407</v>
+        <v>55.57473355</v>
       </c>
       <c r="E17">
-        <v>37.4727662</v>
+        <v>39.53504983</v>
       </c>
       <c r="F17">
-        <v>56.02713353</v>
+        <v>55.57529415</v>
       </c>
       <c r="G17">
-        <v>10.8</v>
+        <v>10.77</v>
       </c>
       <c r="H17">
         <v>10</v>
       </c>
       <c r="I17">
-        <v>0.8000000000000007</v>
+        <v>0.7699999999999996</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>635599</v>
+        <v>639715</v>
       </c>
       <c r="B18">
-        <v>608011</v>
+        <v>645467</v>
       </c>
       <c r="C18">
-        <v>37.4727662</v>
+        <v>39.53504983</v>
       </c>
       <c r="D18">
-        <v>56.02713353</v>
+        <v>55.57529415</v>
       </c>
       <c r="E18">
-        <v>37.48886578</v>
+        <v>39.53578999</v>
       </c>
       <c r="F18">
-        <v>56.02299038</v>
+        <v>55.5793716</v>
       </c>
       <c r="G18">
-        <v>13.69</v>
+        <v>11.52</v>
       </c>
       <c r="H18">
         <v>10</v>
       </c>
       <c r="I18">
-        <v>3.69</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>608011</v>
+        <v>645467</v>
       </c>
       <c r="B19">
-        <v>644835</v>
+        <v>609224</v>
       </c>
       <c r="C19">
-        <v>37.48886578</v>
+        <v>39.53578999</v>
       </c>
       <c r="D19">
-        <v>56.02299038</v>
+        <v>55.5793716</v>
       </c>
       <c r="E19">
-        <v>37.43079605</v>
+        <v>39.54743985</v>
       </c>
       <c r="F19">
-        <v>56.0261919</v>
+        <v>55.57319192</v>
       </c>
       <c r="G19">
-        <v>17.81</v>
+        <v>11.39</v>
       </c>
       <c r="H19">
         <v>10</v>
       </c>
       <c r="I19">
-        <v>7.809999999999999</v>
+        <v>1.390000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>644835</v>
+        <v>609224</v>
       </c>
       <c r="B20">
-        <v>639713</v>
+        <v>676338</v>
       </c>
       <c r="C20">
-        <v>37.43079605</v>
+        <v>39.54743985</v>
       </c>
       <c r="D20">
-        <v>56.0261919</v>
+        <v>55.57319192</v>
       </c>
       <c r="E20">
-        <v>37.42003964</v>
+        <v>39.52174884</v>
       </c>
       <c r="F20">
-        <v>56.02487363</v>
+        <v>55.57805332</v>
       </c>
       <c r="G20">
-        <v>10.88</v>
+        <v>13.54</v>
       </c>
       <c r="H20">
         <v>10</v>
       </c>
       <c r="I20">
-        <v>0.8800000000000008</v>
+        <v>3.539999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>639713</v>
+        <v>676338</v>
       </c>
       <c r="B21">
-        <v>622316</v>
+        <v>609084</v>
       </c>
       <c r="C21">
-        <v>37.42003964</v>
+        <v>39.52174884</v>
       </c>
       <c r="D21">
-        <v>56.02487363</v>
+        <v>55.57805332</v>
       </c>
       <c r="E21">
-        <v>37.42738868</v>
+        <v>39.52284813</v>
       </c>
       <c r="F21">
-        <v>56.02153196</v>
+        <v>55.57886356</v>
       </c>
       <c r="G21">
-        <v>11.52</v>
+        <v>10.47</v>
       </c>
       <c r="H21">
         <v>10</v>
       </c>
       <c r="I21">
-        <v>1.52</v>
+        <v>0.4700000000000006</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>622316</v>
+        <v>609084</v>
       </c>
       <c r="B22">
-        <v>607579</v>
+        <v>638415</v>
       </c>
       <c r="C22">
-        <v>37.42738868</v>
+        <v>39.52284813</v>
       </c>
       <c r="D22">
-        <v>56.02153196</v>
+        <v>55.57886356</v>
       </c>
       <c r="E22">
-        <v>37.37787678</v>
+        <v>39.69803493</v>
       </c>
       <c r="F22">
-        <v>56.06551237</v>
+        <v>55.54747101</v>
       </c>
       <c r="G22">
-        <v>24.9</v>
+        <v>33.62</v>
       </c>
       <c r="H22">
         <v>10</v>
       </c>
       <c r="I22">
-        <v>14.9</v>
+        <v>23.62</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>607579</v>
+        <v>638415</v>
       </c>
       <c r="B23">
-        <v>667822</v>
+        <v>635569</v>
       </c>
       <c r="C23">
-        <v>37.37787678</v>
+        <v>39.69803493</v>
       </c>
       <c r="D23">
-        <v>56.06551237</v>
+        <v>55.54747101</v>
       </c>
       <c r="E23">
-        <v>37.35864575</v>
+        <v>39.8313592</v>
       </c>
       <c r="F23">
-        <v>56.05672242</v>
+        <v>55.31770085</v>
       </c>
       <c r="G23">
-        <v>12.67</v>
+        <v>49.14</v>
       </c>
       <c r="H23">
         <v>10</v>
       </c>
       <c r="I23">
-        <v>2.67</v>
+        <v>39.14</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <v>667822</v>
+        <v>635569</v>
       </c>
       <c r="B24">
-        <v>635229</v>
+        <v>606584</v>
       </c>
       <c r="C24">
-        <v>37.35864575</v>
+        <v>39.8313592</v>
       </c>
       <c r="D24">
-        <v>56.05672242</v>
+        <v>55.31770085</v>
       </c>
       <c r="E24">
-        <v>37.33951983</v>
+        <v>39.07875809</v>
       </c>
       <c r="F24">
-        <v>55.89264334</v>
+        <v>55.36568638</v>
       </c>
       <c r="G24">
-        <v>51.6</v>
+        <v>81.3</v>
       </c>
       <c r="H24">
         <v>10</v>
       </c>
       <c r="I24">
-        <v>41.6</v>
+        <v>71.3</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>635229</v>
+        <v>606584</v>
       </c>
       <c r="B25">
-        <v>688325</v>
+        <v>635546</v>
       </c>
       <c r="C25">
-        <v>37.33951983</v>
+        <v>39.07875809</v>
       </c>
       <c r="D25">
-        <v>55.89264334</v>
+        <v>55.36568638</v>
       </c>
       <c r="E25">
-        <v>37.29691901</v>
+        <v>39.05958663</v>
       </c>
       <c r="F25">
-        <v>55.83687292</v>
+        <v>55.37004201</v>
       </c>
       <c r="G25">
-        <v>40.23999999999999</v>
+        <v>12.25</v>
       </c>
       <c r="H25">
         <v>10</v>
       </c>
       <c r="I25">
-        <v>30.23999999999999</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>688325</v>
+        <v>635546</v>
       </c>
       <c r="B26">
-        <v>634971</v>
+        <v>659561</v>
       </c>
       <c r="C26">
-        <v>37.29691901</v>
+        <v>39.05958663</v>
       </c>
       <c r="D26">
-        <v>55.83687292</v>
+        <v>55.37004201</v>
       </c>
       <c r="E26">
-        <v>37.16568728</v>
+        <v>39.07334748</v>
       </c>
       <c r="F26">
-        <v>55.74825077</v>
+        <v>55.36003013</v>
       </c>
       <c r="G26">
-        <v>37.73</v>
+        <v>12.3</v>
       </c>
       <c r="H26">
         <v>10</v>
       </c>
       <c r="I26">
-        <v>27.73</v>
+        <v>2.300000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <v>634971</v>
+        <v>659561</v>
       </c>
       <c r="B27">
-        <v>634868</v>
+        <v>607087</v>
       </c>
       <c r="C27">
-        <v>37.16568728</v>
+        <v>39.07334748</v>
       </c>
       <c r="D27">
-        <v>55.74825077</v>
+        <v>55.36003013</v>
       </c>
       <c r="E27">
-        <v>37.05441798</v>
+        <v>39.06881892</v>
       </c>
       <c r="F27">
-        <v>55.73190155</v>
+        <v>55.36590324</v>
       </c>
       <c r="G27">
-        <v>26.84</v>
+        <v>11.61</v>
       </c>
       <c r="H27">
         <v>10</v>
       </c>
       <c r="I27">
-        <v>16.84</v>
+        <v>1.609999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>634868</v>
+        <v>607087</v>
       </c>
       <c r="B28">
-        <v>682767</v>
+        <v>622342</v>
       </c>
       <c r="C28">
-        <v>37.05441798</v>
+        <v>39.06881892</v>
       </c>
       <c r="D28">
-        <v>55.73190155</v>
+        <v>55.36590324</v>
       </c>
       <c r="E28">
-        <v>37.25081885</v>
+        <v>39.05783915</v>
       </c>
       <c r="F28">
-        <v>55.67566251</v>
+        <v>55.36780401</v>
       </c>
       <c r="G28">
-        <v>33.23999999999999</v>
+        <v>11.55</v>
       </c>
       <c r="H28">
         <v>10</v>
       </c>
       <c r="I28">
-        <v>23.23999999999999</v>
+        <v>1.550000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <v>682767</v>
+        <v>622342</v>
       </c>
       <c r="B29">
-        <v>646945</v>
+        <v>679673</v>
       </c>
       <c r="C29">
-        <v>37.25081885</v>
+        <v>39.05783915</v>
       </c>
       <c r="D29">
-        <v>55.67566251</v>
+        <v>55.36780401</v>
       </c>
       <c r="E29">
-        <v>37.25589924</v>
+        <v>39.04140672</v>
       </c>
       <c r="F29">
-        <v>55.67401138</v>
+        <v>55.37991373</v>
       </c>
       <c r="G29">
-        <v>13.44</v>
+        <v>13.69</v>
       </c>
       <c r="H29">
         <v>10</v>
       </c>
       <c r="I29">
-        <v>3.44</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>646945</v>
+        <v>679673</v>
       </c>
       <c r="B30">
-        <v>680605</v>
+        <v>607001</v>
       </c>
       <c r="C30">
-        <v>37.25589924</v>
+        <v>39.04140672</v>
       </c>
       <c r="D30">
-        <v>55.67401138</v>
+        <v>55.37991373</v>
       </c>
       <c r="E30">
-        <v>37.28117856</v>
+        <v>39.03140798</v>
       </c>
       <c r="F30">
-        <v>55.6794728</v>
+        <v>55.392422</v>
       </c>
       <c r="G30">
-        <v>12.99</v>
+        <v>12.5</v>
       </c>
       <c r="H30">
         <v>10</v>
       </c>
       <c r="I30">
-        <v>2.99</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <v>680605</v>
+        <v>607001</v>
       </c>
       <c r="B31">
-        <v>688241</v>
+        <v>635232</v>
       </c>
       <c r="C31">
-        <v>37.28117856</v>
+        <v>39.03140798</v>
       </c>
       <c r="D31">
-        <v>55.6794728</v>
+        <v>55.392422</v>
       </c>
       <c r="E31">
-        <v>37.29113788</v>
+        <v>39.02524582</v>
       </c>
       <c r="F31">
-        <v>55.66795433</v>
+        <v>55.38964092</v>
       </c>
       <c r="G31">
-        <v>16.04</v>
+        <v>11.49</v>
       </c>
       <c r="H31">
         <v>10</v>
       </c>
       <c r="I31">
-        <v>6.039999999999999</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
-        <v>688241</v>
+        <v>635232</v>
       </c>
       <c r="B32">
-        <v>687657</v>
+        <v>698959</v>
       </c>
       <c r="C32">
-        <v>37.29113788</v>
+        <v>39.02524582</v>
       </c>
       <c r="D32">
-        <v>55.66795433</v>
+        <v>55.38964092</v>
       </c>
       <c r="E32">
-        <v>37.32404654</v>
+        <v>39.0252693</v>
       </c>
       <c r="F32">
-        <v>55.69701328</v>
+        <v>55.38663177</v>
       </c>
       <c r="G32">
-        <v>18.67</v>
+        <v>11.35</v>
       </c>
       <c r="H32">
         <v>10</v>
       </c>
       <c r="I32">
-        <v>8.670000000000002</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
-        <v>687657</v>
+        <v>698959</v>
       </c>
       <c r="B33">
-        <v>634668</v>
+        <v>677549</v>
       </c>
       <c r="C33">
-        <v>37.32404654</v>
+        <v>39.0252693</v>
       </c>
       <c r="D33">
-        <v>55.69701328</v>
+        <v>55.38663177</v>
       </c>
       <c r="E33">
-        <v>37.38549736</v>
+        <v>39.02091873</v>
       </c>
       <c r="F33">
-        <v>55.65031311</v>
+        <v>55.39346436</v>
       </c>
       <c r="G33">
-        <v>24.57</v>
+        <v>13.17</v>
       </c>
       <c r="H33">
         <v>10</v>
       </c>
       <c r="I33">
-        <v>14.57</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
-        <v>634668</v>
+        <v>677549</v>
       </c>
       <c r="B34">
-        <v>687408</v>
+        <v>635738</v>
       </c>
       <c r="C34">
-        <v>37.38549736</v>
+        <v>39.02091873</v>
       </c>
       <c r="D34">
-        <v>55.65031311</v>
+        <v>55.39346436</v>
       </c>
       <c r="E34">
-        <v>37.4736708</v>
+        <v>39.05339819</v>
       </c>
       <c r="F34">
-        <v>55.6631969</v>
+        <v>55.37709324</v>
       </c>
       <c r="G34">
-        <v>19.51</v>
+        <v>16.85</v>
       </c>
       <c r="H34">
         <v>10</v>
       </c>
       <c r="I34">
-        <v>9.509999999999998</v>
+        <v>6.850000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35">
-        <v>687408</v>
+        <v>635738</v>
       </c>
       <c r="B35">
-        <v>689107</v>
+        <v>622385</v>
       </c>
       <c r="C35">
-        <v>37.4736708</v>
+        <v>39.05339819</v>
       </c>
       <c r="D35">
-        <v>55.6631969</v>
+        <v>55.37709324</v>
       </c>
       <c r="E35">
-        <v>37.49471699</v>
+        <v>39.02204868</v>
       </c>
       <c r="F35">
-        <v>55.66397323</v>
+        <v>55.36871059</v>
       </c>
       <c r="G35">
-        <v>13.09</v>
+        <v>15.04</v>
       </c>
       <c r="H35">
         <v>10</v>
       </c>
       <c r="I35">
-        <v>3.09</v>
+        <v>5.039999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
+        <v>622385</v>
+      </c>
+      <c r="B36">
+        <v>677563</v>
+      </c>
+      <c r="C36">
+        <v>39.02204868</v>
+      </c>
+      <c r="D36">
+        <v>55.36871059</v>
+      </c>
+      <c r="E36">
+        <v>39.07174891</v>
+      </c>
+      <c r="F36">
+        <v>55.35194093</v>
+      </c>
+      <c r="G36">
+        <v>20</v>
+      </c>
+      <c r="H36">
+        <v>10</v>
+      </c>
+      <c r="I36">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
